--- a/data/Tab13comp.xlsx
+++ b/data/Tab13comp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/States/LA-IndivBusTax/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/States/AR-IndivBusTax/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F6FA6-20CB-C94E-AB54-7357DC0A6FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404A20AD-B16D-7442-AC62-0CF7A88A0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="500" windowWidth="29660" windowHeight="17440" activeTab="1" xr2:uid="{EFC944F9-A181-BC43-8A18-67589B198BBF}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15420" xr2:uid="{EFC944F9-A181-BC43-8A18-67589B198BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="3" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
-  <si>
-    <t>FY 2023 Corporate Income Tax Revenue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="133">
   <si>
     <t>Baseline</t>
   </si>
@@ -317,51 +314,6 @@
     <t>reweighting factor</t>
   </si>
   <si>
-    <t>IRS SOI Louisiana 2021</t>
-  </si>
-  <si>
-    <t>Lower bound LA 2021 federal AGI cutoff</t>
-  </si>
-  <si>
-    <t>Total amount of LA 2021 federal AGI</t>
-  </si>
-  <si>
-    <t>Percent of 2021 US tax revenue from LA</t>
-  </si>
-  <si>
-    <t>2024 LA baseline effective tax rate</t>
-  </si>
-  <si>
-    <t>2024 LA average baseline tax liability</t>
-  </si>
-  <si>
-    <t>Total dollar decrease in 2024 LA tax liability from 3% flat tax</t>
-  </si>
-  <si>
-    <t>Total 2024 LA baseline tax liability</t>
-  </si>
-  <si>
-    <t>Percent of 2024 LA baseline tax revenue</t>
-  </si>
-  <si>
-    <t>Average dollar decrease in 2024 LA tax liability from 3% flat tax</t>
-  </si>
-  <si>
-    <t>Average percent decrease in 2024 LA tax liability from 3% flat tax</t>
-  </si>
-  <si>
-    <t>LA net tax liability</t>
-  </si>
-  <si>
-    <t>Total number of Louisina filers</t>
-  </si>
-  <si>
-    <t>Total 2023 revenue from individual income tax</t>
-  </si>
-  <si>
-    <t>Corporate income tax receited during fiscal year 2023</t>
-  </si>
-  <si>
     <t>Taxable</t>
   </si>
   <si>
@@ -440,25 +392,64 @@
     <t>tax rate</t>
   </si>
   <si>
-    <t>FY 2023 Corporation Franchise tax revenue</t>
-  </si>
-  <si>
     <t xml:space="preserve">total CIT </t>
   </si>
   <si>
     <t>reduced from</t>
   </si>
   <si>
-    <t>7.5% to 3.5%</t>
-  </si>
-  <si>
-    <t>total CIT</t>
-  </si>
-  <si>
-    <t>5.5% to 3.5%</t>
-  </si>
-  <si>
-    <t>whose tax liability doesn't change</t>
+    <t>IRS SOI Arkansas 2021</t>
+  </si>
+  <si>
+    <t>AR net tax liability</t>
+  </si>
+  <si>
+    <t>4.3% to 3.0%</t>
+  </si>
+  <si>
+    <t>Corporate income tax receited during fiscal year 2023 from Louisiana (none for Arkansas)</t>
+  </si>
+  <si>
+    <t>FY 2024 Corporation Franchise tax revenue</t>
+  </si>
+  <si>
+    <t>Total FY 2024 revenue from individual income tax</t>
+  </si>
+  <si>
+    <t>FY 2024 Corporate Income Tax Revenue</t>
+  </si>
+  <si>
+    <t>Total number of Arkansas filers</t>
+  </si>
+  <si>
+    <t>Lower bound AR 2021 federal AGI cutoff</t>
+  </si>
+  <si>
+    <t>Total amount of AR 2021 federal AGI</t>
+  </si>
+  <si>
+    <t>Percent of 2021 US tax revenue from AR</t>
+  </si>
+  <si>
+    <t>2024 AR baseline effective tax rate</t>
+  </si>
+  <si>
+    <t>2024 AR average baseline tax liability</t>
+  </si>
+  <si>
+    <t>Total 2024 AR baseline tax liability</t>
+  </si>
+  <si>
+    <t>Percent of 2024 AR baseline tax revenue</t>
+  </si>
+  <si>
+    <t>Average percent decrease in 2024 AR tax liability from 3% flat tax</t>
+  </si>
+  <si>
+    <t>Average dollar decrease in 2024 AR tax liability from 3% flat tax</t>
+  </si>
+  <si>
+    <t>Total dollar decrease in 2024 AR tax liability from 3% flat tax</t>
   </si>
 </sst>
 </file>
@@ -472,7 +463,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0&quot;    &quot;;#,##0&quot;    &quot;;&quot;--    &quot;;@&quot;    &quot;"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -572,7 +563,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,14 +591,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3BA07A-D7E9-C944-AD3E-E6A8F2DD85F4}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,31 +954,31 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="O1" s="9">
         <v>2024</v>
@@ -997,57 +986,57 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1">
         <f>$C$3-$C$9</f>
-        <v>470925</v>
+        <v>304603</v>
       </c>
       <c r="G2" s="1">
         <f>$C$9-$C$8</f>
-        <v>470924</v>
+        <v>304603</v>
       </c>
       <c r="H2" s="1">
         <f>$C$8-$C$7</f>
-        <v>470925</v>
+        <v>304603</v>
       </c>
       <c r="I2" s="1">
         <f>$C$7-$C$6</f>
-        <v>282555</v>
+        <v>182762</v>
       </c>
       <c r="J2" s="1">
         <f>$C$6-$C$5</f>
-        <v>94185</v>
+        <v>60920</v>
       </c>
       <c r="K2" s="1">
         <f>$C$5-$C$4</f>
-        <v>75348</v>
+        <v>48737</v>
       </c>
       <c r="L2" s="1">
         <f>$C$4</f>
-        <v>18837</v>
+        <v>12184</v>
       </c>
       <c r="M2" s="1">
         <f>$C$3</f>
-        <v>1883699</v>
+        <v>1218412</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="8">
-        <v>1883699</v>
+        <v>1218412</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:L3" si="0">$O$3</f>
@@ -1083,271 +1072,271 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" s="8">
-        <v>18837</v>
+        <v>12184</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <f>$C$16</f>
-        <v>18469</v>
+        <v>20051</v>
       </c>
       <c r="H4" s="4">
         <f>$C$15</f>
-        <v>38424</v>
+        <v>39577</v>
       </c>
       <c r="I4" s="4">
         <f>$C$14</f>
-        <v>80080</v>
+        <v>78325.25</v>
       </c>
       <c r="J4" s="4">
         <f>$C$13</f>
-        <v>143523</v>
+        <v>135235.9</v>
       </c>
       <c r="K4" s="4">
         <f>$C$12</f>
-        <v>202007</v>
+        <v>192217.45</v>
       </c>
       <c r="L4" s="4">
         <f>$C$11</f>
-        <v>521252</v>
+        <v>471817.58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" s="8">
-        <v>94185</v>
+        <v>60921</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F5" s="4">
         <f>($C$18-$C$24)*1000</f>
-        <v>4987613000</v>
+        <v>3356433000</v>
       </c>
       <c r="G5" s="4">
         <f>($C$24-$C$23)*1000</f>
-        <v>12964592000</v>
+        <v>8914661000</v>
       </c>
       <c r="H5" s="4">
         <f>($C$23-$C$22)*1000</f>
-        <v>26403998000</v>
+        <v>17120519000</v>
       </c>
       <c r="I5" s="4">
         <f>($C$22-$C$21)*1000</f>
-        <v>30122061000</v>
+        <v>18617409000</v>
       </c>
       <c r="J5" s="4">
         <f>($C$21-$C$20)*1000</f>
-        <v>15811995000</v>
+        <v>9668258000</v>
       </c>
       <c r="K5" s="4">
         <f>($C$20-$C$19)*1000</f>
-        <v>21947118000</v>
+        <v>13379087000</v>
       </c>
       <c r="L5" s="4">
         <f>$C$19*1000</f>
-        <v>30411189000</v>
+        <v>29475171000</v>
       </c>
       <c r="M5" s="4">
         <f>$C$18*1000</f>
-        <v>142648566000</v>
+        <v>100531538000</v>
       </c>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C6" s="8">
-        <v>188370</v>
+        <v>121841</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4">
         <f>($C$26-$C$32)*1000</f>
-        <v>5948000</v>
+        <v>8709000</v>
       </c>
       <c r="G6" s="4">
         <f>($C$32-$C$31)*1000</f>
-        <v>336245000</v>
+        <v>270608000</v>
       </c>
       <c r="H6" s="4">
         <f>($C$31-$C$30)*1000</f>
-        <v>1617543000</v>
+        <v>995174000</v>
       </c>
       <c r="I6" s="4">
         <f>($C$30-$C$29)*1000</f>
-        <v>2727116000</v>
+        <v>1565035000</v>
       </c>
       <c r="J6" s="4">
         <f>($C$29-$C$28)*1000</f>
-        <v>1970415000</v>
+        <v>1151306000</v>
       </c>
       <c r="K6" s="4">
         <f>($C$28-$C$27)*1000</f>
-        <v>3638731000</v>
+        <v>2153065000</v>
       </c>
       <c r="L6" s="4">
         <f>$C$27*1000</f>
-        <v>7704939000</v>
+        <v>6311373000</v>
       </c>
       <c r="M6" s="4">
         <f>$C$26*1000</f>
-        <v>18000937000</v>
+        <v>12455270000</v>
       </c>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" s="8">
-        <v>470925</v>
+        <v>304603</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="14">
         <f>F5/F2</f>
-        <v>10591.098370228805</v>
+        <v>11019.041178189314</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" ref="G7:M7" si="1">G5/G2</f>
-        <v>27530.11526276002</v>
+        <v>29266.491137644738</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="1"/>
-        <v>56068.371821415298</v>
+        <v>56206.009133199608</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="1"/>
-        <v>106606.00944948771</v>
+        <v>101866.95812039702</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="1"/>
-        <v>167882.30609969739</v>
+        <v>158704.16940249508</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="1"/>
-        <v>291276.71603758557</v>
+        <v>274516.01452695078</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="1"/>
-        <v>1614439.0826564739</v>
+        <v>2419170.3053184506</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="1"/>
-        <v>75727.89814083885</v>
+        <v>82510.298651031015</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C8" s="8">
-        <v>941850</v>
+        <v>609206</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="11">
         <f>F6/F2</f>
-        <v>12.630461326113499</v>
+        <v>28.591313939783916</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" ref="G8:M8" si="2">G6/G2</f>
-        <v>714.01117802447948</v>
+        <v>888.39571507831511</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
-        <v>3434.8208313425703</v>
+        <v>3267.1181833402825</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="2"/>
-        <v>9651.6288864114958</v>
+        <v>8563.2407174357904</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="2"/>
-        <v>20920.68800764453</v>
+        <v>18898.65397242285</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" si="2"/>
-        <v>48292.33689016298</v>
+        <v>44177.2164884995</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" si="2"/>
-        <v>409032.17072782293</v>
+        <v>518005.00656598818</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="2"/>
-        <v>9556.1642279366297</v>
+        <v>10222.543770087623</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C9" s="8">
-        <v>1412774</v>
+        <v>913809</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F9" s="13">
         <f>F6/$M$6</f>
-        <v>3.3042724387069404E-4</v>
+        <v>6.9922209634957729E-4</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" ref="G9:M9" si="3">G6/$M$6</f>
-        <v>1.8679305416156949E-2</v>
+        <v>2.1726385698583813E-2</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="3"/>
-        <v>8.9858822349081047E-2</v>
+        <v>7.9899833564426939E-2</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="3"/>
-        <v>0.15149855810283652</v>
+        <v>0.12565243467223111</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="3"/>
-        <v>0.10946180190508972</v>
+        <v>9.2435250299672353E-2</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="3"/>
-        <v>0.20214119964977378</v>
+        <v>0.17286377573509046</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="3"/>
-        <v>0.42802988533319125</v>
+        <v>0.50672309793364578</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="3"/>
@@ -1356,158 +1345,158 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F10" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>0.02</v>
+        <v>2E-3</v>
       </c>
       <c r="H10" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I10" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I10" s="13">
-        <v>3.5000000000000003E-2</v>
-      </c>
       <c r="J10" s="13">
-        <v>3.5000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="K10" s="13">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L10" s="13">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C11" s="5">
-        <v>521252</v>
+        <v>471817.58</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F11" s="14">
         <f>F10*F7</f>
-        <v>105.91098370228805</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" ref="G11:L11" si="4">G10*G7</f>
-        <v>550.60230525520046</v>
+        <v>58.532982275289477</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="4"/>
-        <v>1401.7092955353826</v>
+        <v>730.67811873159485</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="4"/>
-        <v>3731.2103307320704</v>
+        <v>2546.6739530099258</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="4"/>
-        <v>5875.8807134894096</v>
+        <v>4602.4209126723581</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="4"/>
-        <v>10194.685061315497</v>
+        <v>7686.4484067546218</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="4"/>
-        <v>56505.367892976588</v>
+        <v>67736.768548916618</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C12" s="5">
-        <v>202007</v>
+        <v>192217.45</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F12" s="14">
         <f>F11*F3*F2</f>
-        <v>49876130</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" ref="G12:L12" si="5">G11*G3*G2</f>
-        <v>259291840.00000003</v>
+        <v>17829322</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="5"/>
-        <v>660099950</v>
+        <v>222566747</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="5"/>
-        <v>1054272135.0000001</v>
+        <v>465435225.00000006</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="5"/>
-        <v>553419825</v>
+        <v>280379482.00000006</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="5"/>
-        <v>768149130</v>
+        <v>374614436</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="5"/>
-        <v>1064391615</v>
+        <v>825304788.00000012</v>
       </c>
       <c r="M12" s="14">
         <f>SUM(F12:L12)</f>
-        <v>4409500625</v>
+        <v>2186130000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C13" s="5">
-        <v>143523</v>
+        <v>135235.9</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="F13" s="13">
         <f>F12/$M$12</f>
-        <v>1.1311060875515807E-2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" ref="G13:M13" si="6">G12/$M$12</f>
-        <v>5.8802994273302781E-2</v>
+        <v>8.1556549701984789E-3</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="6"/>
-        <v>0.14969947985890125</v>
+        <v>0.10180855987521327</v>
       </c>
       <c r="I13" s="13">
         <f t="shared" si="6"/>
-        <v>0.23909105013450363</v>
+        <v>0.21290372713425096</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="6"/>
-        <v>0.12550623575430381</v>
+        <v>0.12825380100908915</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="6"/>
-        <v>0.17420320243179466</v>
+        <v>0.17135963369058566</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="6"/>
-        <v>0.2413859766716781</v>
+        <v>0.37751862332066261</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="6"/>
@@ -1516,126 +1505,126 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C14" s="5">
-        <v>80080</v>
+        <v>78325.25</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F14" s="13">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H14" s="13">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I14" s="13">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J14" s="13">
-        <v>0.22500000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K14" s="13">
-        <v>0.22500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="L14" s="13">
-        <v>0.22500000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C15" s="5">
-        <v>38424</v>
+        <v>39577</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F15" s="14">
         <f>F14*F11</f>
-        <v>11.120653288740245</v>
+        <v>0</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" ref="G15:L15" si="7">G14*G11</f>
-        <v>110.1204610510401</v>
+        <v>0.5853298227528948</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="7"/>
-        <v>210.25639433030739</v>
+        <v>182.66952968289871</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="7"/>
-        <v>820.86627276105548</v>
+        <v>534.80153013208439</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="7"/>
-        <v>1322.0731605351173</v>
+        <v>1334.7020646749838</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="7"/>
-        <v>2293.804138795987</v>
+        <v>2075.3410698237481</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="7"/>
-        <v>12713.707775919733</v>
+        <v>18288.927508207489</v>
       </c>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C16" s="5">
-        <v>18469</v>
+        <v>20051</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F16" s="14">
         <f>F15*F3*F2</f>
-        <v>5236993.6499999994</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" ref="G16:L16" si="8">G15*G3*G2</f>
-        <v>51858368.000000007</v>
+        <v>178293.22</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="8"/>
-        <v>99014992.5</v>
+        <v>55641686.75</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="8"/>
-        <v>231939869.70000002</v>
+        <v>97741397.250000015</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="8"/>
-        <v>124519460.62500001</v>
+        <v>81310049.780000016</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="8"/>
-        <v>172833554.25000003</v>
+        <v>101145897.72000001</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="8"/>
-        <v>239488113.375</v>
+        <v>222832292.76000005</v>
       </c>
       <c r="M16" s="14">
         <f>SUM(F16:L16)</f>
-        <v>924891352.10000002</v>
+        <v>558849617.48000014</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1649,13 +1638,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C18" s="5">
-        <v>142648566</v>
+        <v>100531538</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1668,13 +1657,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C19" s="5">
-        <v>30411189</v>
+        <v>29475171</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1687,46 +1676,46 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C20" s="5">
-        <v>52358307</v>
+        <v>42854258</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="5">
-        <v>68170302</v>
+        <v>52522516</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C22" s="5">
-        <v>98292363</v>
+        <v>71139925</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" s="5">
-        <v>124696361</v>
+        <v>88260444</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1740,13 +1729,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C24" s="5">
-        <v>137660953</v>
+        <v>97175105</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1768,13 +1757,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C26" s="5">
-        <v>18000937</v>
+        <v>12455270</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1788,13 +1777,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C27" s="5">
-        <v>7704939</v>
+        <v>6311373</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1808,13 +1797,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C28" s="5">
-        <v>11343670</v>
+        <v>8464438</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1826,13 +1815,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" s="5">
-        <v>13314085</v>
+        <v>9615744</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1844,13 +1833,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C30" s="5">
-        <v>16041201</v>
+        <v>11180779</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -1863,13 +1852,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C31" s="5">
-        <v>17658744</v>
+        <v>12175953</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1881,13 +1870,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C32" s="5">
-        <v>17994989</v>
+        <v>12446561</v>
       </c>
       <c r="N32" s="14"/>
     </row>
@@ -1968,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF718C-CFD3-0E4B-947F-4F987CFB0D12}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,31 +1974,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1204000000</v>
+        <v>1127767628</v>
       </c>
       <c r="F2" s="1">
-        <v>4556000000</v>
+        <v>3534613514</v>
       </c>
       <c r="M2" s="1">
         <f>'Tab13'!C3</f>
-        <v>1883699</v>
+        <v>1218412</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>J14*A2*(4/7.5)</f>
-        <v>624469453.96259105</v>
+        <f>J14*A2*(1.3/4.3)</f>
+        <v>340931601.91547203</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2017,81 +2006,81 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
         <v>112</v>
       </c>
-      <c r="F9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B10" s="20">
         <v>43</v>
@@ -2114,33 +2103,27 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
         <v>31</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <f t="shared" ref="C11:C18" si="0">B11/$B$19</f>
         <v>5.2364864864864864E-2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="14">
         <v>341887</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="14">
         <v>6445</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <f t="shared" ref="F11:F18" si="1">E11/$E$19</f>
         <v>1.2554163325788565E-4</v>
       </c>
@@ -2148,33 +2131,27 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="23">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>3.3783783783783786E-2</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="14">
         <v>708808</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="14">
         <v>17583</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <f t="shared" si="1"/>
         <v>3.424978336033209E-4</v>
       </c>
@@ -2182,33 +2159,27 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
         <v>36</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>6.0810810810810814E-2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="14">
         <v>2466159</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="14">
         <v>75009</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <f t="shared" si="1"/>
         <v>1.4610942387960812E-3</v>
       </c>
@@ -2216,63 +2187,56 @@
         <v>5.5E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="23">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14">
         <v>211</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f t="shared" si="0"/>
         <v>0.35641891891891891</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="14">
         <v>51117354</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="14">
         <v>2188604</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <f t="shared" si="1"/>
         <v>4.2631640141930417E-2</v>
       </c>
       <c r="H14">
         <v>6.3E-2</v>
       </c>
-      <c r="J14" s="30">
-        <f>(SUM(E15:E18) + (0.8/2)*E14)/E19</f>
-        <v>0.97249188220918448</v>
-      </c>
-      <c r="K14">
-        <f>(E13 + (1.2/2)*E14)/E19</f>
-        <v>2.7040078323954331E-2</v>
+      <c r="J14" s="28">
+        <f>(SUM(E12:E18) + 0.5*E11)/E19</f>
+        <v>0.99993722918337102</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
         <v>89</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <f t="shared" si="0"/>
         <v>0.15033783783783783</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="14">
         <v>58446019</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="14">
         <v>2798782</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <f t="shared" si="1"/>
         <v>5.4517248008188003E-2</v>
       </c>
@@ -2281,23 +2245,23 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16">
         <v>70</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>0.11824324324324324</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="14">
         <v>89532565</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="14">
         <v>4198899</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <f t="shared" si="1"/>
         <v>8.1790013707510129E-2</v>
       </c>
@@ -2306,23 +2270,23 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
         <v>51</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>8.6148648648648643E-2</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="14">
         <v>143888862</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="14">
         <v>7429692</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <f t="shared" si="1"/>
         <v>0.14472236901210966</v>
       </c>
@@ -2331,23 +2295,23 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="27">
+      <c r="A18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="25">
         <v>41</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="26">
         <f t="shared" si="0"/>
         <v>6.9256756756756757E-2</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <v>639175579</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <v>34622537</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="26">
         <f t="shared" si="1"/>
         <v>0.67440959542460455</v>
       </c>
@@ -2357,7 +2321,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B19" s="17">
         <f>SUM(B10:B18)</f>
@@ -2386,12 +2350,12 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <v>401000000</v>
+        <v>36005793</v>
       </c>
     </row>
   </sheetData>
@@ -2403,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F271AC-9D43-974E-9375-267120895F2A}">
   <dimension ref="B4:T20"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2413,80 +2377,78 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>13000</v>
       </c>
       <c r="D6" s="5">
-        <v>14236.559569999999</v>
+        <v>14323</v>
       </c>
       <c r="E6" s="5">
-        <v>147.740005</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>E6/C6</f>
-        <v>1.1364615769230769E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>14252.059569999999</v>
+        <v>14323</v>
       </c>
       <c r="H6" s="5">
-        <v>132.240005</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <f>H6-E6</f>
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" ref="J6:J11" si="0">I6/E6</f>
-        <v>-0.10491403462454195</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
@@ -2496,38 +2458,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>40000</v>
       </c>
       <c r="D7" s="5">
-        <v>33013.5</v>
+        <v>33582</v>
       </c>
       <c r="E7" s="5">
-        <v>1110.5</v>
+        <v>542</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" ref="F7:F11" si="1">E7/C7</f>
-        <v>2.7762499999999999E-2</v>
+        <f t="shared" ref="F7:F11" si="0">E7/C7</f>
+        <v>1.355E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>33164</v>
+        <v>33653</v>
       </c>
       <c r="H7" s="5">
-        <v>960</v>
+        <v>471</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I11" si="2">H7-E7</f>
-        <v>-150.5</v>
+        <v>-71</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.13552453849617291</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+        <f t="shared" ref="J6:J11" si="1">I7/E7</f>
+        <v>-0.13099630996309963</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2537,38 +2498,37 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>90000</v>
       </c>
       <c r="D8" s="5">
-        <v>68313.5</v>
+        <v>69204</v>
       </c>
       <c r="E8" s="5">
-        <v>3160.5</v>
+        <v>2270</v>
       </c>
       <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>2.5222222222222222E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>69545</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1929</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-341</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>3.5116666666666664E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>69014</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2460</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>-700.5</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.22164214523018511</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+        <v>-0.15022026431718061</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2578,38 +2538,36 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>22000</v>
       </c>
       <c r="D9" s="5">
-        <v>22820.867188</v>
+        <v>22992</v>
       </c>
       <c r="E9" s="5">
-        <v>232.07299800000001</v>
+        <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
-        <v>1.0548772636363637E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>22851.367188</v>
+        <v>22992</v>
       </c>
       <c r="H9" s="5">
-        <v>201.57299800000001</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.13142416508102334</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -2619,38 +2577,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>60000</v>
       </c>
       <c r="D10" s="5">
-        <v>50657</v>
+        <v>51475</v>
       </c>
       <c r="E10" s="5">
-        <v>1521</v>
+        <v>703</v>
       </c>
       <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1716666666666667E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>51636</v>
+      </c>
+      <c r="H10" s="5">
+        <v>542</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-161</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>2.5350000000000001E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>50828</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1350</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="2"/>
-        <v>-171</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.11242603550295859</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+        <v>-0.22901849217638692</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -2660,38 +2617,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
         <v>160000</v>
       </c>
       <c r="D11" s="5">
-        <v>123407</v>
+        <v>124407</v>
       </c>
       <c r="E11" s="5">
-        <v>5471</v>
+        <v>4471</v>
       </c>
       <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>2.794375E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>125618</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3260</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1211</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>3.4193750000000002E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>124528</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4350</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="2"/>
-        <v>-1121</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.20489855602266496</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+        <v>-0.27085663162603446</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2714,74 +2670,74 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5">
         <v>20000</v>
       </c>
       <c r="D15" s="5">
-        <v>36741.148437999997</v>
-      </c>
-      <c r="E15" s="7">
-        <v>-199.95001199999999</v>
+        <v>36480</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
       </c>
       <c r="F15" s="15">
         <f>E15/C15</f>
-        <v>-9.9975005999999988E-3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>36791.398437999997</v>
-      </c>
-      <c r="H15" s="7">
-        <v>-250.20001199999999</v>
+        <v>36480</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" ref="I15:I20" si="3">H15-E15</f>
-        <v>-50.25</v>
+        <v>0</v>
       </c>
       <c r="J15" s="6">
-        <f>-I15/E15</f>
-        <v>-0.25131281312451237</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -2795,34 +2751,33 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5">
         <v>60000</v>
       </c>
       <c r="D16" s="5">
-        <v>53843.75</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1725.25</v>
+        <v>54414</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1155</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" ref="F16:F20" si="4">E16/C16</f>
-        <v>2.8754166666666667E-2</v>
+        <f t="shared" ref="F16:F20" si="2">E16/C16</f>
+        <v>1.925E-2</v>
       </c>
       <c r="G16" s="5">
         <v>54169</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>1400</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="3"/>
-        <v>-325.25</v>
+        <v>-325</v>
       </c>
       <c r="J16" s="6">
         <f>I16/E16</f>
-        <v>-0.18852340240544849</v>
+        <v>-0.2813852813852814</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -2836,34 +2791,33 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5">
         <v>150000</v>
       </c>
       <c r="D17" s="5">
-        <v>115466.75</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5565.25</v>
+        <v>116590</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4442</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="4"/>
-        <v>3.7101666666666665E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.9613333333333332E-2</v>
       </c>
       <c r="G17" s="5">
         <v>116917</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>4115</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="3"/>
-        <v>-1450.25</v>
+        <v>-1450</v>
       </c>
       <c r="J17" s="6">
         <f>I17/E17</f>
-        <v>-0.26059026997888685</v>
+        <v>-0.3264295362449347</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2877,34 +2831,32 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5">
         <v>25000</v>
       </c>
       <c r="D18" s="5">
-        <v>42841.699219000002</v>
-      </c>
-      <c r="E18" s="7">
-        <v>-71.200012000000001</v>
+        <v>42709</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="4"/>
-        <v>-2.8480004800000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>42860.699219000002</v>
-      </c>
-      <c r="H18" s="7">
-        <v>-90.200012000000001</v>
+        <v>42709</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="3"/>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6">
-        <f>-I18/E18</f>
-        <v>-0.26685388760889533</v>
+        <v>0</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -2918,34 +2870,33 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5">
         <v>70000</v>
       </c>
       <c r="D19" s="5">
-        <v>62844</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1809</v>
+        <v>63706</v>
+      </c>
+      <c r="E19" s="5">
+        <v>947</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="4"/>
-        <v>2.5842857142857143E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3528571428571428E-2</v>
       </c>
       <c r="G19" s="5">
-        <v>63088</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1565</v>
+        <v>63957</v>
+      </c>
+      <c r="H19" s="5">
+        <v>696</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="3"/>
-        <v>-244</v>
+        <v>-251</v>
       </c>
       <c r="J19" s="6">
         <f>I19/E19</f>
-        <v>-0.13488114980652294</v>
+        <v>-0.26504751847940866</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -2959,34 +2910,33 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="5">
         <v>200000</v>
       </c>
       <c r="D20" s="5">
-        <v>154509</v>
-      </c>
-      <c r="E20" s="7">
-        <v>7109</v>
+        <v>155921</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5697</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="4"/>
-        <v>3.5545E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.8485E-2</v>
       </c>
       <c r="G20" s="5">
-        <v>156153</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5465</v>
+        <v>157456</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4162</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="3"/>
-        <v>-1644</v>
+        <v>-1535</v>
       </c>
       <c r="J20" s="6">
         <f>I20/E20</f>
-        <v>-0.23125615417076945</v>
+        <v>-0.26944005616991401</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
